--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_9.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_0</t>
+          <t>model_3_9_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7758257878453292</v>
+        <v>0.1984207691934646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.832032820605226</v>
+        <v>-0.755002438371885</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03056365049492826</v>
+        <v>0.2729627960098634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7810693783805769</v>
+        <v>-0.3051436890544714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2480947971343994</v>
+        <v>0.8871120810508728</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2825610041618347</v>
+        <v>3.326462030410767</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1423723250627518</v>
+        <v>1.193012475967407</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2165896594524384</v>
+        <v>2.322487592697144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_1</t>
+          <t>model_3_9_11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7902892990732887</v>
+        <v>0.2895599609140579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8272159381990341</v>
+        <v>-0.4545896609217528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03605183335191986</v>
+        <v>0.3121754711659134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7811104671796889</v>
+        <v>-0.1187239159318012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2320879548788071</v>
+        <v>0.7862477898597717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2906641662120819</v>
+        <v>2.757054328918457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1331693828105927</v>
+        <v>1.12866735458374</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2165489941835403</v>
+        <v>1.990755915641785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_2</t>
+          <t>model_3_9_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7915112713204743</v>
+        <v>0.3145054881783034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8272790394072769</v>
+        <v>0.3085973256153984</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03283135600739417</v>
+        <v>0.3038203107847639</v>
       </c>
       <c r="E4" t="n">
-        <v>0.780955898801147</v>
+        <v>0.3080131231787764</v>
       </c>
       <c r="F4" t="n">
-        <v>0.230735570192337</v>
+        <v>0.7586404085159302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2905580103397369</v>
+        <v>1.31049656867981</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1336143016815186</v>
+        <v>1.142377614974976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2167019098997116</v>
+        <v>1.231382250785828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_3</t>
+          <t>model_3_9_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7980948641656782</v>
+        <v>0.3550102809061463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8255612791439598</v>
+        <v>0.3579023695474768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01398601491266038</v>
+        <v>0.3501438402067579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.778170965762534</v>
+        <v>0.3559184022467831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2234494984149933</v>
+        <v>0.7138136029243469</v>
       </c>
       <c r="G5" t="n">
-        <v>0.293447732925415</v>
+        <v>1.217043042182922</v>
       </c>
       <c r="H5" t="n">
-        <v>0.136217787861824</v>
+        <v>1.066364288330078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2194570600986481</v>
+        <v>1.146135449409485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_4</t>
+          <t>model_3_9_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8000250941757325</v>
+        <v>0.3621708436784778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8201130200293225</v>
+        <v>-0.6376081593365817</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3301310590909206</v>
+        <v>0.5032803830974275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7506527530730285</v>
+        <v>-0.138998731964453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2213133126497269</v>
+        <v>0.7058889269828796</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3026129901409149</v>
+        <v>3.103950977325439</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1837575435638428</v>
+        <v>0.8150789141654968</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2466810792684555</v>
+        <v>2.026834487915039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_5</t>
+          <t>model_3_9_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8023430059976187</v>
+        <v>0.369967805265397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.819721207980907</v>
+        <v>0.3431263832225573</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2384379822120826</v>
+        <v>0.3784496660375636</v>
       </c>
       <c r="E7" t="n">
-        <v>0.756325673869207</v>
+        <v>0.3598701885935421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2187480479478836</v>
+        <v>0.6972599625587463</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3032721281051636</v>
+        <v>1.245049715042114</v>
       </c>
       <c r="H7" t="n">
-        <v>0.17109015583992</v>
+        <v>1.019916534423828</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2410687506198883</v>
+        <v>1.139103412628174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_10</t>
+          <t>model_3_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8041902710892346</v>
+        <v>0.387306005258068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8037041137572696</v>
+        <v>0.3759687083996167</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3057915214013314</v>
+        <v>0.3029261734684242</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7374807010963509</v>
+        <v>0.345617596094594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2167036533355713</v>
+        <v>0.6780716776847839</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3302167057991028</v>
+        <v>1.182799816131592</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1803950369358063</v>
+        <v>1.143844842910767</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2597122490406036</v>
+        <v>1.164465665817261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_9</t>
+          <t>model_3_9_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8044016023246318</v>
+        <v>0.3880282884643048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8057941814511776</v>
+        <v>-0.1059053172055744</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2044955423713322</v>
+        <v>0.3089604553212345</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7460185495125016</v>
+        <v>0.07650559093311216</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2164697796106339</v>
+        <v>0.6772723197937012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3267007172107697</v>
+        <v>2.096152067184448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1664009988307953</v>
+        <v>1.1339430809021</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2512657046318054</v>
+        <v>1.643347144126892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_11</t>
+          <t>model_3_9_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8048697850966618</v>
+        <v>0.3935539720499002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8042188343434881</v>
+        <v>0.4227697449421465</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.301986639227479</v>
+        <v>0.2405798742345481</v>
       </c>
       <c r="E10" t="n">
-        <v>0.738194106269471</v>
+        <v>0.3449519582033592</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2159516513347626</v>
+        <v>0.6711570024490356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3293508291244507</v>
+        <v>1.0940922498703</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1798693984746933</v>
+        <v>1.246150374412537</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2590064704418182</v>
+        <v>1.165650129318237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_8</t>
+          <t>model_3_9_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8049889396799919</v>
+        <v>0.3938834277856962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8077239481583515</v>
+        <v>-0.2161007450367096</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1893874823769557</v>
+        <v>0.3741286487385779</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7487487788032647</v>
+        <v>0.04264413064367489</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2158197611570358</v>
+        <v>0.6707924604415894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.323454350233078</v>
+        <v>2.305018424987793</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1643138229846954</v>
+        <v>1.027006983757019</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2485646605491638</v>
+        <v>1.703603029251099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_12</t>
+          <t>model_3_9_9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8055737702700133</v>
+        <v>0.3981693583743471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8025637449352898</v>
+        <v>-0.01563597325747801</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2889058354075384</v>
+        <v>0.349173321943922</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7375636014543611</v>
+        <v>0.1448582725017978</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2151725292205811</v>
+        <v>0.6660491228103638</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3321350812911987</v>
+        <v>1.925053954124451</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1780622750520706</v>
+        <v>1.067956805229187</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2596302330493927</v>
+        <v>1.521714329719543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_6</t>
+          <t>model_3_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8063814047626559</v>
+        <v>0.402669787545696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8111000887650068</v>
+        <v>-0.4712773376827364</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.029055256474944</v>
+        <v>0.4902841337549191</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7623242530789986</v>
+        <v>-0.0508444720572141</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2142787277698517</v>
+        <v>0.6610685586929321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3177748918533325</v>
+        <v>2.788684368133545</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1421639323234558</v>
+        <v>0.8364047408103943</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2351343333721161</v>
+        <v>1.869965076446533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_7</t>
+          <t>model_3_9_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8069988220412272</v>
+        <v>0.4035145122776048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8094262645707344</v>
+        <v>0.3992631471065085</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05908513425737705</v>
+        <v>0.4172736054200461</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7588439414261264</v>
+        <v>0.4083728578798319</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2135954201221466</v>
+        <v>0.6601336598396301</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3205906450748444</v>
+        <v>1.138646960258484</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1463125646114349</v>
+        <v>0.9562094211578369</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2385774552822113</v>
+        <v>1.052793383598328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_17</t>
+          <t>model_3_9_8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8072984190287691</v>
+        <v>0.404129692940641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7976918234441268</v>
+        <v>0.01502780572045603</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2705295996126431</v>
+        <v>0.3558815368078704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.734385372222967</v>
+        <v>0.1650609415119059</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2132638692855835</v>
+        <v>0.6594528555870056</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3403307795524597</v>
+        <v>1.866933345794678</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1755236089229584</v>
+        <v>1.056949138641357</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2627744972705841</v>
+        <v>1.485764026641846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_13</t>
+          <t>model_3_9_4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8073501180223002</v>
+        <v>0.4046620651602759</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8013579463483148</v>
+        <v>0.4260307037253668</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2016754967382353</v>
+        <v>0.3672791853375699</v>
       </c>
       <c r="E16" t="n">
-        <v>0.742210485609387</v>
+        <v>0.4017725780078807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2132066488265991</v>
+        <v>0.6588636636734009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3341635465621948</v>
+        <v>1.087911248207092</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1660114228725433</v>
+        <v>1.038246512413025</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2550330460071564</v>
+        <v>1.064538478851318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_18</t>
+          <t>model_3_9_5</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8075095509230066</v>
+        <v>0.4112000840733212</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7965065782842161</v>
+        <v>0.4389838797550596</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2479637058847084</v>
+        <v>0.3677690165196428</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7348012666069788</v>
+        <v>0.4092890438772405</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2130302041769028</v>
+        <v>0.6516279578208923</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3423246741294861</v>
+        <v>1.06335973739624</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1724061220884323</v>
+        <v>1.037442684173584</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2623630166053772</v>
+        <v>1.051162958145142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_14</t>
+          <t>model_3_9_15</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.807616552914556</v>
+        <v>0.4484990523576957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.800385524247155</v>
+        <v>-0.2126454687806933</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1918099160129527</v>
+        <v>0.5252841202625099</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7419834341280392</v>
+        <v>0.1101868670557677</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2129117995500565</v>
+        <v>0.6103490591049194</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3357993364334106</v>
+        <v>2.298469066619873</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1646484881639481</v>
+        <v>0.7789725065231323</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2552576661109924</v>
+        <v>1.583411812782288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_24</t>
+          <t>model_3_9_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8086334265096681</v>
+        <v>0.4520855742660452</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7919409951732711</v>
+        <v>-0.2721017681446136</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1970438406684167</v>
+        <v>0.4931456847323811</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7340374997575916</v>
+        <v>0.06271406373543065</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2117864042520523</v>
+        <v>0.6063798666000366</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3500050604343414</v>
+        <v>2.411163806915283</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1653715670108795</v>
+        <v>0.8317091464996338</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2631186246871948</v>
+        <v>1.66788911819458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_16</t>
+          <t>model_3_9_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8087798279873467</v>
+        <v>0.453338803427689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8000860711151317</v>
+        <v>-0.2663311599516927</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1769840537225167</v>
+        <v>0.4954020795959634</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7426878894221807</v>
+        <v>0.06694628741091257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2116243839263916</v>
+        <v>0.6049928665161133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3363031148910522</v>
+        <v>2.400225877761841</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1626002937555313</v>
+        <v>0.8280065655708313</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2545607388019562</v>
+        <v>1.66035783290863</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_15</t>
+          <t>model_3_9_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8088841111155981</v>
+        <v>0.4563459571299018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8018189842561219</v>
+        <v>-0.2627906434888923</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1727637541273521</v>
+        <v>0.5006146442718449</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7445254290972727</v>
+        <v>0.07120475685002259</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2115089893341064</v>
+        <v>0.6016648411750793</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3333879411220551</v>
+        <v>2.393515348434448</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1620172560214996</v>
+        <v>0.8194531202316284</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2527428567409515</v>
+        <v>1.652779817581177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_23</t>
+          <t>model_3_9_14</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8089620557287981</v>
+        <v>0.4932895077514599</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7928369138508808</v>
+        <v>-0.01987590955977936</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.189326430830745</v>
+        <v>0.5066093156244913</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7353510692847374</v>
+        <v>0.2107850791132883</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2114227116107941</v>
+        <v>0.5607792139053345</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3484979271888733</v>
+        <v>1.933090448379517</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1643053889274597</v>
+        <v>0.8096163272857666</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2618191242218018</v>
+        <v>1.404398441314697</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_22</t>
+          <t>model_3_9_16</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8089702724073915</v>
+        <v>0.5369693320818741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.792801688989341</v>
+        <v>0.08584842525831116</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1868545650908326</v>
+        <v>0.5265314321533905</v>
       </c>
       <c r="E23" t="n">
-        <v>0.735481612564126</v>
+        <v>0.2790495453343343</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2114136219024658</v>
+        <v>0.5124384760856628</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3485571444034576</v>
+        <v>1.732698678970337</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1639638990163803</v>
+        <v>0.7769256830215454</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2616899609565735</v>
+        <v>1.282922744750977</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_20</t>
+          <t>model_3_9_19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8093517199911253</v>
+        <v>0.5388831185299665</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7966351502654486</v>
+        <v>0.02374760375531448</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1719661705976239</v>
+        <v>0.5362127203631808</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7399112540769739</v>
+        <v>0.2482327588245357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2109914720058441</v>
+        <v>0.5103205442428589</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3421083688735962</v>
+        <v>1.85040557384491</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1619070768356323</v>
+        <v>0.7610394358634949</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2573076784610748</v>
+        <v>1.3377605676651</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_19</t>
+          <t>model_3_9_17</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8095136841635997</v>
+        <v>0.542203478839279</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7984140080160518</v>
+        <v>0.06617840093496341</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1666516909518745</v>
+        <v>0.544506536600988</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7418618105485748</v>
+        <v>0.2757573827257228</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2108122259378433</v>
+        <v>0.5066457986831665</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3391158878803253</v>
+        <v>1.769981622695923</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1611728817224503</v>
+        <v>0.7474299073219299</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2553780078887939</v>
+        <v>1.288781046867371</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_21</t>
+          <t>model_3_9_18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8096762369666989</v>
+        <v>0.5616540272509607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7951554669618122</v>
+        <v>0.1080373977190219</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1539343557329522</v>
+        <v>0.5561638952554557</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7397638538933624</v>
+        <v>0.3044196478657872</v>
       </c>
       <c r="F26" t="n">
-        <v>0.21063232421875</v>
+        <v>0.4851198494434357</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3445975780487061</v>
+        <v>1.690641403198242</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1594159603118896</v>
+        <v>0.7283011078834534</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2574535310268402</v>
+        <v>1.237776756286621</v>
       </c>
     </row>
   </sheetData>
